--- a/stock_predictor_ai/data/company_sentiment_ready/CDNS_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/CDNS_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9587"/>
+  <dimension ref="A1:B9641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77137,6 +77137,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9588">
+      <c r="A9588" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B9588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9589">
+      <c r="A9589" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B9589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9590">
+      <c r="A9590" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B9590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9591">
+      <c r="A9591" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B9591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9592">
+      <c r="A9592" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B9592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9593">
+      <c r="A9593" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B9593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9594">
+      <c r="A9594" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B9594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9595">
+      <c r="A9595" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B9595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9596">
+      <c r="A9596" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B9596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9597">
+      <c r="A9597" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B9597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9598">
+      <c r="A9598" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B9598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9599">
+      <c r="A9599" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B9599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9600">
+      <c r="A9600" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B9600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9601">
+      <c r="A9601" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B9601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9602">
+      <c r="A9602" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B9602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9603">
+      <c r="A9603" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B9603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9604">
+      <c r="A9604" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B9604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9605">
+      <c r="A9605" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B9605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9606">
+      <c r="A9606" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B9606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9607">
+      <c r="A9607" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B9607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9608">
+      <c r="A9608" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B9608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9609">
+      <c r="A9609" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B9609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9610">
+      <c r="A9610" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B9610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9611">
+      <c r="A9611" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B9611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9612">
+      <c r="A9612" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B9612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9613">
+      <c r="A9613" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B9613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9614">
+      <c r="A9614" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B9614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9615">
+      <c r="A9615" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B9615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9616">
+      <c r="A9616" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B9616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9617">
+      <c r="A9617" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B9617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9618">
+      <c r="A9618" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B9618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9619">
+      <c r="A9619" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B9619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9620">
+      <c r="A9620" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B9620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9621">
+      <c r="A9621" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B9621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9622">
+      <c r="A9622" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B9622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9623">
+      <c r="A9623" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B9623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9624">
+      <c r="A9624" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B9624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9625">
+      <c r="A9625" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B9625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9626">
+      <c r="A9626" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B9626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9627">
+      <c r="A9627" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B9627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9628">
+      <c r="A9628" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B9628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9629">
+      <c r="A9629" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B9629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9630">
+      <c r="A9630" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B9630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9631">
+      <c r="A9631" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B9631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9632">
+      <c r="A9632" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B9632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9633">
+      <c r="A9633" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B9633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9634">
+      <c r="A9634" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B9634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9635">
+      <c r="A9635" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B9635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9636">
+      <c r="A9636" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B9636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9637">
+      <c r="A9637" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B9637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9638">
+      <c r="A9638" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B9638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9639">
+      <c r="A9639" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B9639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9640">
+      <c r="A9640" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B9640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9641">
+      <c r="A9641" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B9641" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
